--- a/Excel/Milano/season2_Milano.xlsx
+++ b/Excel/Milano/season2_Milano.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,34 +518,34 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Cameron McAinsh</t>
+          <t>Damiano Barbanera</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -554,16 +554,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>13.5</v>
+        <v>18</v>
       </c>
       <c r="O2" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -572,21 +572,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cerro</t>
+          <t>Daniele Miccoli</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -608,53 +608,53 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N3" t="n">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="O3" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="P3" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Damiano Barbanera</t>
+          <t>Luca Stoppi</t>
         </is>
       </c>
       <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>3</v>
       </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11</v>
-      </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
@@ -665,16 +665,16 @@
         <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>11.5</v>
+        <v>16</v>
       </c>
       <c r="O4" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -684,71 +684,71 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>3</v>
       </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>12</v>
-      </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="O5" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="P5" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ludovico Righi</t>
+          <t>Cameron McAinsh</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -770,19 +770,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="O6" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -792,17 +792,17 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -830,37 +830,37 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="O7" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="P7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Andrea Scalambra</t>
+          <t>Andrea Limonta</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -869,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -884,10 +884,10 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -896,52 +896,52 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Davide Ang</t>
+          <t>Sergio</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>7</v>
       </c>
       <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>7</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>2</v>
       </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>12</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O9" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -950,54 +950,324 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Federico Paolucci</t>
+          <t>Cerro</t>
         </is>
       </c>
       <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>7</v>
       </c>
-      <c r="C10" t="n">
-        <v>2</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>12</v>
-      </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O10" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="P10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Andrea Silverstri</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>7</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>8</v>
+      </c>
+      <c r="O11" t="n">
+        <v>8</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Cocò (Stoppi)</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>7</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>5</v>
+      </c>
+      <c r="O12" t="n">
+        <v>5</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Cri Diaz Lopez</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>7</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>5</v>
+      </c>
+      <c r="O13" t="n">
+        <v>5</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Emilano (Dani)</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>11</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>7</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>5</v>
+      </c>
+      <c r="O14" t="n">
+        <v>5</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Jacopo</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>11</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>7</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>5</v>
+      </c>
+      <c r="O15" t="n">
+        <v>5</v>
+      </c>
+      <c r="P15" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Milano/season2_Milano.xlsx
+++ b/Excel/Milano/season2_Milano.xlsx
@@ -1058,7 +1058,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Cocò (Stoppi)</t>
+          <t>Coco' (Stoppi)</t>
         </is>
       </c>
       <c r="B12" t="n">

--- a/Excel/Milano/season2_Milano.xlsx
+++ b/Excel/Milano/season2_Milano.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,10 +525,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -545,25 +545,25 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
+        <v>16</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>3</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N2" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="O2" t="n">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -572,17 +572,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Daniele Miccoli</t>
+          <t>Cameron McAinsh</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -599,48 +599,48 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>16</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>3</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4</v>
-      </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N3" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="O3" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Luca Stoppi</t>
+          <t>Mazzu</t>
         </is>
       </c>
       <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -653,48 +653,48 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N4" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="O4" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Mazzu</t>
+          <t>Luca Stoppi</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -704,55 +704,55 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
+        <v>21</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M5" t="n">
         <v>3</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
       <c r="N5" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="O5" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cameron McAinsh</t>
+          <t>Andrea Limonta</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -761,48 +761,48 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="O6" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Wissam Rahal</t>
+          <t>Cri Diaz Lopez</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -824,25 +824,25 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="O7" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Andrea Limonta</t>
+          <t>Daniele Miccoli</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -860,7 +860,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -878,16 +878,16 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="O8" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -896,21 +896,21 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sergio</t>
+          <t>Tito</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -938,10 +938,10 @@
         <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O9" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Cerro</t>
+          <t>Giovanni Aiello</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -960,11 +960,11 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -977,10 +977,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="O10" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1004,7 +1004,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Andrea Silverstri</t>
+          <t>Wissam Rahal</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1014,11 +1014,11 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1046,10 +1046,10 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="O11" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1058,7 +1058,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Coco' (Stoppi)</t>
+          <t>Sergio</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1094,16 +1094,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O12" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1112,11 +1112,11 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Cri Diaz Lopez</t>
+          <t>Rudy Vitiello</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1148,16 +1148,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1166,11 +1166,11 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Emilano (Dani)</t>
+          <t>Cerro</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -1196,22 +1196,22 @@
         <v>7</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O14" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1220,54 +1220,432 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>Marco Taglio</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>18</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="n">
+        <v>8</v>
+      </c>
+      <c r="O15" t="n">
+        <v>8</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Andrea Silverstri</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>7</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>8</v>
+      </c>
+      <c r="O16" t="n">
+        <v>8</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Fabrizio Limonta</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>14</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>13</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>8</v>
+      </c>
+      <c r="O17" t="n">
+        <v>8</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Coco' (Stoppi)</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>7</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>5</v>
+      </c>
+      <c r="O18" t="n">
+        <v>5</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>Jacopo</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>11</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
       </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>7</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
         <v>5</v>
       </c>
-      <c r="O15" t="n">
+      <c r="O19" t="n">
         <v>5</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Riccardo Ricci</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>17</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>18</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>5</v>
+      </c>
+      <c r="O20" t="n">
+        <v>5</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Emilano (Dani)</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>17</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>7</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>5</v>
+      </c>
+      <c r="O21" t="n">
+        <v>5</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Carlo Tempesta</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>18</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Milano/season2_Milano.xlsx
+++ b/Excel/Milano/season2_Milano.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,7 +572,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cameron McAinsh</t>
+          <t>Mazzu</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -582,36 +582,36 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N3" t="n">
         <v>15.5</v>
@@ -620,13 +620,13 @@
         <v>31</v>
       </c>
       <c r="P3" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mazzu</t>
+          <t>Luca Stoppi</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -650,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>21</v>
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="M4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N4" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="O4" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="P4" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Luca Stoppi</t>
+          <t>Andrea Limonta</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -698,13 +698,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>21</v>
@@ -713,32 +713,32 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="O5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Andrea Limonta</t>
+          <t>Cri Diaz Lopez</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -761,19 +761,19 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
         <v>9.5</v>
@@ -782,27 +782,27 @@
         <v>19</v>
       </c>
       <c r="P6" t="n">
-        <v>-2</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Cri Diaz Lopez</t>
+          <t>Daniele Miccoli</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -824,25 +824,25 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N7" t="n">
-        <v>9.5</v>
+        <v>16</v>
       </c>
       <c r="O7" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P7" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Daniele Miccoli</t>
+          <t>Tito</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -869,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -878,16 +878,16 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Tito</t>
+          <t>Giovanni Aiello</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -932,16 +932,16 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Giovanni Aiello</t>
+          <t>Cameron McAinsh</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -977,25 +977,25 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
+        <v>3</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="n">
         <v>13</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="n">
-        <v>14</v>
-      </c>
       <c r="O10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1004,11 +1004,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Wissam Rahal</t>
+          <t>Francesco</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1040,16 +1040,16 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1058,7 +1058,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sergio</t>
+          <t>Wissam Rahal</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1068,11 +1068,11 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1094,16 +1094,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1112,7 +1112,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Rudy Vitiello</t>
+          <t>Sergio</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1148,16 +1148,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1220,7 +1220,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Marco Taglio</t>
+          <t>Gian Pareo</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1382,7 +1382,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Coco' (Stoppi)</t>
+          <t>Rudy Vitiello</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -1436,11 +1436,11 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Jacopo</t>
+          <t>Coco' (Stoppi)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -1490,11 +1490,11 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Riccardo Ricci</t>
+          <t>Jacopo</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1544,11 +1544,11 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Emilano (Dani)</t>
+          <t>Mario Croce</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -1571,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1598,54 +1598,108 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>Emilano (Dani)</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>18</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>7</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>5</v>
+      </c>
+      <c r="O22" t="n">
+        <v>5</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>Carlo Tempesta</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>21</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="inlineStr">
+      <c r="B23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
       </c>
-      <c r="F22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>18</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Milano/season2_Milano.xlsx
+++ b/Excel/Milano/season2_Milano.xlsx
@@ -620,7 +620,7 @@
         <v>31</v>
       </c>
       <c r="P3" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -728,7 +728,7 @@
         <v>19</v>
       </c>
       <c r="P5" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -782,7 +782,7 @@
         <v>19</v>
       </c>
       <c r="P6" t="n">
-        <v>-9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">

--- a/Excel/Milano/season2_Milano.xlsx
+++ b/Excel/Milano/season2_Milano.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,6 +515,762 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Andrea Limonta</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>6</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>16</v>
+      </c>
+      <c r="O2" t="n">
+        <v>16</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Cerro</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>16</v>
+      </c>
+      <c r="O3" t="n">
+        <v>16</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Luca Stoppi</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="n">
+        <v>15</v>
+      </c>
+      <c r="O4" t="n">
+        <v>15</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Giovanni Aiello</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>14</v>
+      </c>
+      <c r="O5" t="n">
+        <v>14</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Maurizio</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>14</v>
+      </c>
+      <c r="O6" t="n">
+        <v>14</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Mazzu</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>13</v>
+      </c>
+      <c r="O7" t="n">
+        <v>13</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Leo (Cava)</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>12</v>
+      </c>
+      <c r="O8" t="n">
+        <v>12</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Mario Croce</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>10</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="n">
+        <v>8</v>
+      </c>
+      <c r="O9" t="n">
+        <v>8</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Cameron McAinsh</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>10</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7</v>
+      </c>
+      <c r="O10" t="n">
+        <v>7</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Damiano Barbanera</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>10</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>6</v>
+      </c>
+      <c r="O11" t="n">
+        <v>6</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Sergio</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>10</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6</v>
+      </c>
+      <c r="O12" t="n">
+        <v>6</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Fabrizio Limonta</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>10</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>5</v>
+      </c>
+      <c r="O13" t="n">
+        <v>5</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Francesco</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>10</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>5</v>
+      </c>
+      <c r="O14" t="n">
+        <v>5</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Roby (Cri)</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>12</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>10</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>5</v>
+      </c>
+      <c r="O15" t="n">
+        <v>5</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Excel/Milano/season2_Milano.xlsx
+++ b/Excel/Milano/season2_Milano.xlsx
@@ -518,7 +518,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Andrea Limonta</t>
+          <t>Luca Stoppi</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -548,22 +548,22 @@
         <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="O2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -572,11 +572,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cerro</t>
+          <t>Andrea Limonta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -602,10 +602,10 @@
         <v>6</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
@@ -626,7 +626,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Luca Stoppi</t>
+          <t>Giovanni Aiello</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -662,16 +662,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -680,11 +680,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Giovanni Aiello</t>
+          <t>Maurizio</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -734,11 +734,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Maurizio</t>
+          <t>Cerro</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -770,16 +770,16 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>

--- a/Excel/Milano/season2_Milano.xlsx
+++ b/Excel/Milano/season2_Milano.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,14 +525,14 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -554,16 +554,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N2" t="n">
-        <v>18</v>
+        <v>12.5</v>
       </c>
       <c r="O2" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -579,14 +579,14 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -596,10 +596,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -608,16 +608,16 @@
         <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>16</v>
+        <v>9.5</v>
       </c>
       <c r="O3" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -626,21 +626,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Giovanni Aiello</t>
+          <t>Mario Croce</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -653,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -662,39 +662,39 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N4" t="n">
-        <v>14</v>
+        <v>9.5</v>
       </c>
       <c r="O4" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Maurizio</t>
+          <t>Sergio</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -707,48 +707,48 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>14</v>
+        <v>9.5</v>
       </c>
       <c r="O5" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cerro</t>
+          <t>Cameron McAinsh</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -770,39 +770,39 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N6" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Mazzu</t>
+          <t>Damiano Barbanera</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -827,90 +827,90 @@
         <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Leo (Cava)</t>
+          <t>Roby (Cri)</t>
         </is>
       </c>
       <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>19</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>8</v>
+      </c>
+      <c r="O8" t="n">
+        <v>16</v>
+      </c>
+      <c r="P8" t="n">
         <v>7</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>6</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>12</v>
-      </c>
-      <c r="O8" t="n">
-        <v>12</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mario Croce</t>
+          <t>Fabrizio Limonta</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -932,25 +932,25 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O9" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Cameron McAinsh</t>
+          <t>Giovanni Aiello</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -960,11 +960,11 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="O10" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1004,21 +1004,21 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Damiano Barbanera</t>
+          <t>Maurizio</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1040,16 +1040,16 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="O11" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1058,21 +1058,21 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sergio</t>
+          <t>Cerro</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1094,16 +1094,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="O12" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1112,21 +1112,21 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Fabrizio Limonta</t>
+          <t>Mazzu</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1148,16 +1148,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="O13" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1166,52 +1166,52 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Francesco</t>
+          <t>Leo (Cava)</t>
         </is>
       </c>
       <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>6</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
         <v>12</v>
       </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>10</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>5</v>
-      </c>
       <c r="O14" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1220,54 +1220,378 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Roby (Cri)</t>
+          <t>Cri Diaz Lopez</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>9</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="n">
+        <v>11</v>
+      </c>
+      <c r="O15" t="n">
+        <v>11</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Rocco</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>0%</t>
         </is>
       </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>10</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>7</v>
+      </c>
+      <c r="O16" t="n">
+        <v>7</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Daniele Miccoli</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>10</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="n">
+        <v>6</v>
+      </c>
+      <c r="O17" t="n">
+        <v>6</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Omar</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>10</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>6</v>
+      </c>
+      <c r="O18" t="n">
+        <v>6</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Robi (Stoppi)</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>10</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="n">
+        <v>6</v>
+      </c>
+      <c r="O19" t="n">
+        <v>6</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Jacopo</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>16</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>10</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>6</v>
+      </c>
+      <c r="O20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Francesco</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>10</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
         <v>5</v>
       </c>
-      <c r="O15" t="n">
+      <c r="O21" t="n">
         <v>5</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P21" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Milano/season2_Milano.xlsx
+++ b/Excel/Milano/season2_Milano.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,14 +525,14 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -545,25 +545,25 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.5</v>
+        <v>1.67</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="n">
-        <v>12.5</v>
+        <v>14.67</v>
       </c>
       <c r="O2" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -579,14 +579,14 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -599,7 +599,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -608,16 +608,16 @@
         <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>9.5</v>
+        <v>11.67</v>
       </c>
       <c r="O3" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -626,21 +626,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mario Croce</t>
+          <t>Sergio</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -653,88 +653,88 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N4" t="n">
-        <v>9.5</v>
+        <v>11.33</v>
       </c>
       <c r="O4" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="P4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sergio</t>
+          <t>Mario Croce</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O5" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P5" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cameron McAinsh</t>
+          <t>Mazzu</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -744,11 +744,11 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -776,19 +776,19 @@
         <v>4</v>
       </c>
       <c r="N6" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="O6" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Damiano Barbanera</t>
+          <t>Cerro</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -798,11 +798,11 @@
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>12.5</v>
       </c>
       <c r="O7" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="P7" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8">
@@ -849,14 +849,14 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -869,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -878,19 +878,19 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>8.33</v>
       </c>
       <c r="O8" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="P8" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -903,14 +903,14 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -932,39 +932,39 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O9" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="P9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Giovanni Aiello</t>
+          <t>Robi (Stoppi)</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -986,93 +986,93 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O10" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Maurizio</t>
+          <t>Jacopo</t>
         </is>
       </c>
       <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>12</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="n">
         <v>9</v>
       </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>6</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2</v>
-      </c>
-      <c r="M11" t="n">
-        <v>2</v>
-      </c>
-      <c r="N11" t="n">
-        <v>14</v>
-      </c>
       <c r="O11" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Cerro</t>
+          <t>Cameron McAinsh</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1094,39 +1094,39 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N12" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O12" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Mazzu</t>
+          <t>Cri Diaz Lopez</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1136,51 +1136,51 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O13" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Leo (Cava)</t>
+          <t>Damiano Barbanera</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1202,25 +1202,25 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O14" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Cri Diaz Lopez</t>
+          <t>Maurizio</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1244,28 +1244,28 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O15" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1274,21 +1274,21 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Rocco</t>
+          <t>Giovanni Aiello</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1301,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1316,10 +1316,10 @@
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="O16" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1328,35 +1328,35 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Daniele Miccoli</t>
+          <t>Francesco</t>
         </is>
       </c>
       <c r="B17" t="n">
+        <v>14</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>16</v>
       </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>10</v>
-      </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
@@ -1364,39 +1364,39 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O17" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Omar</t>
+          <t>Leo (Cava)</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="O18" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -1436,11 +1436,11 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Robi (Stoppi)</t>
+          <t>Andrea Silverstri</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1472,16 +1472,16 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O19" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -1490,11 +1490,11 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Jacopo</t>
+          <t>Rocco</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -1544,7 +1544,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Francesco</t>
+          <t>Omar</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1580,18 +1580,126 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
+        <v>6</v>
+      </c>
+      <c r="O21" t="n">
+        <v>6</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Daniele Miccoli</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>10</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Fabio (Mario)</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>6</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>5</v>
       </c>
-      <c r="O21" t="n">
+      <c r="O23" t="n">
         <v>5</v>
       </c>
-      <c r="P21" t="n">
+      <c r="P23" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Milano/season2_Milano.xlsx
+++ b/Excel/Milano/season2_Milano.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,55 +518,55 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Luca Stoppi</t>
+          <t>Sergio</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
-        <v>2</v>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N2" t="n">
-        <v>14.67</v>
+        <v>14.5</v>
       </c>
       <c r="O2" t="n">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -579,14 +579,14 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -599,7 +599,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -608,16 +608,16 @@
         <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>11.67</v>
+        <v>12.5</v>
       </c>
       <c r="O3" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -626,21 +626,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sergio</t>
+          <t>Luca Stoppi</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -653,34 +653,34 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N4" t="n">
-        <v>11.33</v>
+        <v>12.25</v>
       </c>
       <c r="O4" t="n">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Mario Croce</t>
+          <t>Cameron McAinsh</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -690,24 +690,24 @@
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -716,39 +716,39 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>2.33</v>
+        <v>1.67</v>
       </c>
       <c r="M5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O5" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="P5" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Mazzu</t>
+          <t>Damiano Barbanera</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -770,16 +770,16 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="n">
-        <v>14</v>
+        <v>11.67</v>
       </c>
       <c r="O6" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
@@ -795,14 +795,14 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>2</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -824,29 +824,29 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>12.5</v>
+        <v>10.33</v>
       </c>
       <c r="O7" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="P7" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Roby (Cri)</t>
+          <t>Mario Croce</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -878,39 +878,39 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.67</v>
+        <v>2.33</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N8" t="n">
-        <v>8.33</v>
+        <v>10</v>
       </c>
       <c r="O8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fabrizio Limonta</t>
+          <t>Mazzu</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -932,19 +932,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.33</v>
+        <v>2</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N9" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="O9" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -957,14 +957,14 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -986,39 +986,39 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O10" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="P10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Jacopo</t>
+          <t>Roby (Cri)</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1040,39 +1040,39 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>9</v>
+        <v>8.33</v>
       </c>
       <c r="O11" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="P11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Cameron McAinsh</t>
+          <t>Jacopo</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1094,39 +1094,39 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>0.67</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O12" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="P12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Cri Diaz Lopez</t>
+          <t>Fabrizio Limonta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1136,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
@@ -1157,20 +1157,20 @@
         <v>8</v>
       </c>
       <c r="O13" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="P13" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Damiano Barbanera</t>
+          <t>Maurizio</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
@@ -1193,34 +1193,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N14" t="n">
-        <v>8</v>
+        <v>11.5</v>
       </c>
       <c r="O14" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="P14" t="n">
-        <v>4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Maurizio</t>
+          <t>Tito</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1256,16 +1256,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N15" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="O15" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1274,7 +1274,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Giovanni Aiello</t>
+          <t>Stefano (Cava)</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1301,10 +1301,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1316,10 +1316,10 @@
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="O16" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1328,21 +1328,21 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Francesco</t>
+          <t>Cri Diaz Lopez</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1352,41 +1352,41 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
+        <v>15</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="n">
+        <v>8</v>
+      </c>
+      <c r="O17" t="n">
         <v>16</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>7</v>
-      </c>
-      <c r="O17" t="n">
-        <v>14</v>
-      </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Leo (Cava)</t>
+          <t>Wissam Rahal</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="O18" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Andrea Silverstri</t>
+          <t>Giovanni Aiello</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1446,11 +1446,11 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1472,16 +1472,16 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="O19" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -1490,14 +1490,14 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Rocco</t>
+          <t>Francesco</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1526,25 +1526,25 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>7</v>
       </c>
       <c r="O20" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Omar</t>
+          <t>Leo (Cava)</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1554,11 +1554,11 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1571,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1580,16 +1580,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="O21" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -1602,10 +1602,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1634,25 +1634,25 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O22" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Fabio (Mario)</t>
+          <t>Andrea Silverstri</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1694,12 +1694,228 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
+        <v>9</v>
+      </c>
+      <c r="O23" t="n">
+        <v>9</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Rocco</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>10</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>7</v>
+      </c>
+      <c r="O24" t="n">
+        <v>7</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Omar</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>10</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="n">
+        <v>6</v>
+      </c>
+      <c r="O25" t="n">
+        <v>6</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Federico Paolucci</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>12</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>5</v>
       </c>
-      <c r="O23" t="n">
+      <c r="O26" t="n">
         <v>5</v>
       </c>
-      <c r="P23" t="n">
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Fabio (Mario)</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>6</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>5</v>
+      </c>
+      <c r="O27" t="n">
+        <v>5</v>
+      </c>
+      <c r="P27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Milano/season2_Milano.xlsx
+++ b/Excel/Milano/season2_Milano.xlsx
@@ -525,14 +525,14 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
         <v>4</v>
       </c>
-      <c r="D2" t="n">
-        <v>3</v>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -554,19 +554,19 @@
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="M2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N2" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="O2" t="n">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -579,14 +579,14 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
         <v>4</v>
       </c>
-      <c r="D3" t="n">
-        <v>3</v>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -599,7 +599,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -608,16 +608,16 @@
         <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="O3" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -633,14 +633,14 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>60%</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -653,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J4" t="n">
         <v>2</v>
@@ -662,39 +662,39 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="n">
-        <v>12.25</v>
+        <v>12.2</v>
       </c>
       <c r="O4" t="n">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="P4" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cameron McAinsh</t>
+          <t>Damiano Barbanera</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N5" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="O5" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -734,21 +734,21 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Damiano Barbanera</t>
+          <t>Cameron McAinsh</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -770,39 +770,39 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N6" t="n">
-        <v>11.67</v>
+        <v>10.25</v>
       </c>
       <c r="O6" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Cerro</t>
+          <t>Jacopo</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>2</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -824,93 +824,93 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.67</v>
+        <v>1.5</v>
       </c>
       <c r="M7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N7" t="n">
-        <v>10.33</v>
+        <v>9.5</v>
       </c>
       <c r="O7" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Mario Croce</t>
+          <t>Tito</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="n">
+        <v>17</v>
+      </c>
+      <c r="O8" t="n">
+        <v>34</v>
+      </c>
+      <c r="P8" t="n">
         <v>3</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>33%</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>25</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="M8" t="n">
-        <v>7</v>
-      </c>
-      <c r="N8" t="n">
-        <v>10</v>
-      </c>
-      <c r="O8" t="n">
-        <v>30</v>
-      </c>
-      <c r="P8" t="n">
-        <v>-1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mazzu</t>
+          <t>Maurizio</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>2</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -923,48 +923,48 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="n">
-        <v>14</v>
+        <v>11.33</v>
       </c>
       <c r="O9" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Robi (Stoppi)</t>
+          <t>Fabrizio Limonta</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -986,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="P10" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11">
@@ -1008,17 +1008,17 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1040,25 +1040,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>8.33</v>
+        <v>8</v>
       </c>
       <c r="O11" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Jacopo</t>
+          <t>Cerro</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1068,11 +1068,11 @@
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1100,23 +1100,23 @@
         <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>8</v>
+        <v>10.33</v>
       </c>
       <c r="O12" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="P12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Fabrizio Limonta</t>
+          <t>Mario Croce</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1148,25 +1148,25 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.33</v>
+        <v>2.33</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O13" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Maurizio</t>
+          <t>Mazzu</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1176,11 +1176,11 @@
         <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1193,48 +1193,48 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N14" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="O14" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P14" t="n">
-        <v>-5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Tito</t>
+          <t>Stefano (Cava)</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1247,48 +1247,48 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N15" t="n">
-        <v>20</v>
+        <v>13.5</v>
       </c>
       <c r="O15" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Stefano (Cava)</t>
+          <t>Robi (Stoppi)</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1301,34 +1301,34 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>0.33</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N16" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="O16" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Cri Diaz Lopez</t>
+          <t>Leo (Cava)</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1338,11 +1338,11 @@
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1352,51 +1352,51 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="O17" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="P17" t="n">
-        <v>-2</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Wissam Rahal</t>
+          <t>Cri Diaz Lopez</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1406,51 +1406,51 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>16</v>
+        <v>7.67</v>
       </c>
       <c r="O18" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Giovanni Aiello</t>
+          <t>Federico Paolucci</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1463,25 +1463,25 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="O19" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -1490,21 +1490,21 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Francesco</t>
+          <t>Wissam Rahal</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1517,34 +1517,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
+        <v>3</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="n">
         <v>16</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>7</v>
-      </c>
       <c r="O20" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Leo (Cava)</t>
+          <t>Giovanni Aiello</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1580,16 +1580,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O21" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -1598,11 +1598,11 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Daniele Miccoli</t>
+          <t>Francesco</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" t="n">
         <v>2</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1634,19 +1634,19 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="O22" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P22" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1656,10 +1656,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1694,13 +1694,13 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O23" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="24">
@@ -1713,7 +1713,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1742,32 +1742,32 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="M24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N24" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O24" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Omar</t>
+          <t>Daniele Miccoli</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -1787,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1796,25 +1796,25 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O25" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Federico Paolucci</t>
+          <t>Omar</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1850,16 +1850,16 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>

--- a/Excel/Milano/season2_Milano.xlsx
+++ b/Excel/Milano/season2_Milano.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,27 +525,27 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
         <v>5</v>
       </c>
-      <c r="D2" t="n">
-        <v>4</v>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>83%</t>
         </is>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -554,16 +554,16 @@
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="M2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N2" t="n">
         <v>14</v>
       </c>
       <c r="O2" t="n">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -579,14 +579,14 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
         <v>5</v>
       </c>
-      <c r="D3" t="n">
-        <v>4</v>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>83%</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -599,7 +599,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -608,16 +608,16 @@
         <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>12.4</v>
+        <v>12</v>
       </c>
       <c r="O3" t="n">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -630,17 +630,17 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>60%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -653,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="J4" t="n">
         <v>2</v>
@@ -665,13 +665,13 @@
         <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N4" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="O4" t="n">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -680,21 +680,21 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Damiano Barbanera</t>
+          <t>Cameron McAinsh</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>40%</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="M5" t="n">
         <v>6</v>
       </c>
       <c r="N5" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="O5" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -734,21 +734,21 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cameron McAinsh</t>
+          <t>Damiano Barbanera</t>
         </is>
       </c>
       <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
       <c r="D6" t="n">
         <v>2</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>40%</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -770,16 +770,16 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N6" t="n">
-        <v>10.25</v>
+        <v>9.6</v>
       </c>
       <c r="O6" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="P6" t="n">
         <v>-1</v>
@@ -788,21 +788,21 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Jacopo</t>
+          <t>Tito</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>2</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -815,25 +815,25 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="M7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N7" t="n">
-        <v>9.5</v>
+        <v>14.33</v>
       </c>
       <c r="O7" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="P7" t="n">
         <v>2</v>
@@ -842,21 +842,21 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Tito</t>
+          <t>Cerro</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -869,34 +869,34 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="n">
-        <v>17</v>
+        <v>10.5</v>
       </c>
       <c r="O8" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="P8" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Maurizio</t>
+          <t>Mazzu</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -906,11 +906,11 @@
         <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -923,34 +923,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N9" t="n">
-        <v>11.33</v>
+        <v>14</v>
       </c>
       <c r="O9" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="P9" t="n">
-        <v>2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Fabrizio Limonta</t>
+          <t>Jacopo</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -960,11 +960,11 @@
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -986,39 +986,39 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N10" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="O10" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P10" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Roby (Cri)</t>
+          <t>Fabrizio Limonta</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1040,52 +1040,52 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="O11" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="P11" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Cerro</t>
+          <t>Mario Croce</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1094,25 +1094,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0.67</v>
+        <v>2.25</v>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N12" t="n">
-        <v>10.33</v>
+        <v>9.25</v>
       </c>
       <c r="O12" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Mario Croce</t>
+          <t>Maurizio</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1122,65 +1122,65 @@
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>2.33</v>
+        <v>1.33</v>
       </c>
       <c r="M13" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N13" t="n">
-        <v>10</v>
+        <v>11.33</v>
       </c>
       <c r="O13" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P13" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Mazzu</t>
+          <t>Roby (Cri)</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1193,48 +1193,48 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
+        <v>33</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
         <v>8</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2</v>
-      </c>
-      <c r="M14" t="n">
-        <v>4</v>
-      </c>
-      <c r="N14" t="n">
-        <v>14</v>
-      </c>
       <c r="O14" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Stefano (Cava)</t>
+          <t>Federico Paolucci</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1247,48 +1247,48 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="O15" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P15" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Robi (Stoppi)</t>
+          <t>Cri Diaz Lopez</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1298,37 +1298,37 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="n">
-        <v>9</v>
+        <v>7.25</v>
       </c>
       <c r="O16" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Leo (Cava)</t>
+          <t>Stefano (Cava)</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1338,11 +1338,11 @@
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1355,38 +1355,38 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N17" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="O17" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P17" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Cri Diaz Lopez</t>
+          <t>Robi (Stoppi)</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" t="n">
         <v>3</v>
@@ -1406,13 +1406,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1424,19 +1424,19 @@
         <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>7.67</v>
+        <v>9</v>
       </c>
       <c r="O18" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="P18" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Federico Paolucci</t>
+          <t>Leo (Cava)</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1446,11 +1446,11 @@
         <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1463,13 +1463,13 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -1478,33 +1478,33 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O19" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Wissam Rahal</t>
+          <t>Rocco</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1517,34 +1517,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
+        <v>27</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="O20" t="n">
+        <v>20</v>
+      </c>
+      <c r="P20" t="n">
         <v>3</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="n">
-        <v>16</v>
-      </c>
-      <c r="O20" t="n">
-        <v>16</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Giovanni Aiello</t>
+          <t>Wissam Rahal</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1571,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1580,16 +1580,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O21" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -1598,21 +1598,21 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Francesco</t>
+          <t>Giovanni Aiello</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1634,19 +1634,19 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="O22" t="n">
         <v>14</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C23" t="n">
         <v>2</v>
@@ -1706,11 +1706,11 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Rocco</t>
+          <t>Francesco</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C24" t="n">
         <v>2</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1742,39 +1742,39 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P24" t="n">
-        <v>-6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Daniele Miccoli</t>
+          <t>Gianluca</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1784,44 +1784,44 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="O25" t="n">
         <v>11</v>
       </c>
       <c r="P25" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Omar</t>
+          <t>Daniele Miccoli</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1850,25 +1850,25 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O26" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Fabio (Mario)</t>
+          <t>Mirko (Cava)</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1878,44 +1878,206 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>8</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>10</v>
+      </c>
+      <c r="O27" t="n">
+        <v>10</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Claudio</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>27</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>0%</t>
         </is>
       </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>9</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
         <v>6</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
+      <c r="O28" t="n">
+        <v>6</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Omar</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>10</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="n">
+        <v>6</v>
+      </c>
+      <c r="O29" t="n">
+        <v>6</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Fabio (Mario)</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>29</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>6</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>5</v>
       </c>
-      <c r="O27" t="n">
+      <c r="O30" t="n">
         <v>5</v>
       </c>
-      <c r="P27" t="n">
+      <c r="P30" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Milano/season2_Milano.xlsx
+++ b/Excel/Milano/season2_Milano.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,55 +518,55 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sergio</t>
+          <t>Luca Stoppi</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
         <v>5</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>83%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.5</v>
+        <v>1.14</v>
       </c>
       <c r="M2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N2" t="n">
-        <v>14</v>
+        <v>12.57</v>
       </c>
       <c r="O2" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -579,14 +579,14 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
         <v>6</v>
       </c>
-      <c r="D3" t="n">
-        <v>5</v>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>83%</t>
+          <t>86%</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -599,7 +599,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -608,16 +608,16 @@
         <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>12</v>
+        <v>12.29</v>
       </c>
       <c r="O3" t="n">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -626,52 +626,52 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Luca Stoppi</t>
+          <t>Sergio</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>83%</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="M4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O4" t="n">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -680,21 +680,21 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cameron McAinsh</t>
+          <t>Damiano Barbanera</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>40%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -716,52 +716,52 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1.2</v>
+        <v>1.67</v>
       </c>
       <c r="M5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N5" t="n">
-        <v>9.6</v>
+        <v>10.83</v>
       </c>
       <c r="O5" t="n">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Damiano Barbanera</t>
+          <t>Mazzu</t>
         </is>
       </c>
       <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>40%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -770,39 +770,39 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1.4</v>
+        <v>3.25</v>
       </c>
       <c r="M6" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N6" t="n">
-        <v>9.6</v>
+        <v>16</v>
       </c>
       <c r="O6" t="n">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="P6" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tito</t>
+          <t>Cameron McAinsh</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
         <v>2</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -815,34 +815,34 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N7" t="n">
-        <v>14.33</v>
+        <v>8.83</v>
       </c>
       <c r="O7" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="P7" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Cerro</t>
+          <t>Federico Paolucci</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -869,48 +869,48 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P8" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mazzu</t>
+          <t>Tito</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -923,48 +923,48 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="M9" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N9" t="n">
-        <v>14</v>
+        <v>14.33</v>
       </c>
       <c r="O9" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P9" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Jacopo</t>
+          <t>Fabrizio Limonta</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>17%</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -986,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1.5</v>
+        <v>0.33</v>
       </c>
       <c r="M10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="O10" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="P10" t="n">
         <v>2</v>
@@ -1004,21 +1004,21 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Fabrizio Limonta</t>
+          <t>Cerro</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1031,61 +1031,61 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
+        <v>28</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="O11" t="n">
         <v>42</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="M11" t="n">
-        <v>2</v>
-      </c>
-      <c r="N11" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="O11" t="n">
-        <v>37</v>
-      </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Mario Croce</t>
+          <t>Robi (Stoppi)</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" t="n">
         <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1094,19 +1094,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>2.25</v>
+        <v>0.25</v>
       </c>
       <c r="M12" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>9.25</v>
+        <v>10.25</v>
       </c>
       <c r="O12" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="P12" t="n">
-        <v>-6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13">
@@ -1119,14 +1119,14 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>2</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1148,25 +1148,25 @@
         <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" t="n">
-        <v>11.33</v>
+        <v>10</v>
       </c>
       <c r="O13" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="P13" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Roby (Cri)</t>
+          <t>Jacopo</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1176,11 +1176,11 @@
         <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1202,73 +1202,73 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N14" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="O14" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P14" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Federico Paolucci</t>
+          <t>Mario Croce</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N15" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="O15" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="P15" t="n">
-        <v>3</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="16">
@@ -1281,14 +1281,14 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1301,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1310,39 +1310,39 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="n">
-        <v>7.25</v>
+        <v>6.8</v>
       </c>
       <c r="O16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Stefano (Cava)</t>
+          <t>Roby (Cri)</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1355,48 +1355,48 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>13.5</v>
+        <v>8</v>
       </c>
       <c r="O17" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="P17" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Robi (Stoppi)</t>
+          <t>Stefano (Cava)</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1409,48 +1409,48 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0.33</v>
+        <v>2</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>13.5</v>
       </c>
       <c r="O18" t="n">
         <v>27</v>
       </c>
       <c r="P18" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Leo (Cava)</t>
+          <t>Rocco</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1472,39 +1472,39 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N19" t="n">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="O19" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="P19" t="n">
-        <v>-5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Rocco</t>
+          <t>Leo (Cava)</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1526,35 +1526,35 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>6.67</v>
+        <v>12</v>
       </c>
       <c r="O20" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="P20" t="n">
-        <v>3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Wissam Rahal</t>
+          <t>Gianluca</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1562,57 +1562,57 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>16</v>
+        <v>10.5</v>
       </c>
       <c r="O21" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Giovanni Aiello</t>
+          <t>Andrea Silverstri</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1634,32 +1634,32 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>14</v>
+        <v>6.33</v>
       </c>
       <c r="O22" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Andrea Silverstri</t>
+          <t>Daniele Miccoli</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1688,39 +1688,39 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O23" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="P23" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Francesco</t>
+          <t>Gian Scotti</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1733,34 +1733,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="O24" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="P24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Gianluca</t>
+          <t>Wissam Rahal</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1784,28 +1784,28 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="O25" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -1814,11 +1814,11 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Daniele Miccoli</t>
+          <t>Francesco</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26" t="n">
         <v>2</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1850,29 +1850,29 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="O26" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P26" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Mirko (Cava)</t>
+          <t>Giovanni Aiello</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
@@ -1895,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -1904,16 +1904,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N27" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="O27" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Claudio</t>
+          <t>Mirko (Cava)</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1932,11 +1932,11 @@
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1949,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1964,10 +1964,10 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O28" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -1976,11 +1976,11 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Omar</t>
+          <t>Coyote (Cri)</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
@@ -2006,22 +2006,22 @@
         <v>10</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O29" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -2030,7 +2030,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Fabio (Mario)</t>
+          <t>Claudio</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2057,27 +2057,135 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
+        <v>9</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>6</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
+      <c r="O30" t="n">
+        <v>6</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Omar</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>10</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="n">
+        <v>6</v>
+      </c>
+      <c r="O31" t="n">
+        <v>6</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fabio (Mario)</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>31</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>6</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>5</v>
       </c>
-      <c r="O30" t="n">
+      <c r="O32" t="n">
         <v>5</v>
       </c>
-      <c r="P30" t="n">
+      <c r="P32" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Milano/season2_Milano.xlsx
+++ b/Excel/Milano/season2_Milano.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
   <si>
     <t>Player</t>
   </si>
@@ -67,10 +67,13 @@
     <t>Sergio</t>
   </si>
   <si>
+    <t>Andrea Limonta</t>
+  </si>
+  <si>
     <t>Luca Stoppi</t>
   </si>
   <si>
-    <t>Andrea Limonta</t>
+    <t>Mazzu</t>
   </si>
   <si>
     <t>Cameron McAinsh</t>
@@ -79,39 +82,42 @@
     <t>Damiano Barbanera</t>
   </si>
   <si>
-    <t>Mazzu</t>
-  </si>
-  <si>
     <t>Jacopo</t>
   </si>
   <si>
+    <t>Fabrizio Limonta</t>
+  </si>
+  <si>
+    <t>Federico Paolucci</t>
+  </si>
+  <si>
+    <t>Cerro</t>
+  </si>
+  <si>
     <t>Tito</t>
   </si>
   <si>
-    <t>Fabrizio Limonta</t>
-  </si>
-  <si>
-    <t>Federico Paolucci</t>
-  </si>
-  <si>
     <t>Maurizio</t>
   </si>
   <si>
+    <t>Cri Diaz Lopez</t>
+  </si>
+  <si>
     <t>Robi (Stoppi)</t>
   </si>
   <si>
-    <t>Cri Diaz Lopez</t>
-  </si>
-  <si>
-    <t>Cerro</t>
-  </si>
-  <si>
     <t>Mario Croce</t>
   </si>
   <si>
+    <t>Gianluca</t>
+  </si>
+  <si>
     <t>Roby (Cri)</t>
   </si>
   <si>
+    <t>Gian Scotti</t>
+  </si>
+  <si>
     <t>Stefano (Cava)</t>
   </si>
   <si>
@@ -121,9 +127,6 @@
     <t>Leo (Cava)</t>
   </si>
   <si>
-    <t>Gianluca</t>
-  </si>
-  <si>
     <t>Mirko (Cava)</t>
   </si>
   <si>
@@ -133,70 +136,76 @@
     <t>Daniele Miccoli</t>
   </si>
   <si>
-    <t>Gian Scotti</t>
+    <t>Alessio (Cava)</t>
   </si>
   <si>
     <t>Wissam Rahal</t>
   </si>
   <si>
+    <t>Francesco</t>
+  </si>
+  <si>
     <t>Giovanni Aiello</t>
   </si>
   <si>
-    <t>Francesco</t>
-  </si>
-  <si>
-    <t>Alessio (Cava)</t>
+    <t>Zen</t>
+  </si>
+  <si>
+    <t>Davide (Mazzu)</t>
   </si>
   <si>
     <t>Coyote (Cri)</t>
   </si>
   <si>
+    <t>Omar</t>
+  </si>
+  <si>
     <t>Claudio</t>
   </si>
   <si>
-    <t>Omar</t>
-  </si>
-  <si>
     <t>Fabio (Mario)</t>
   </si>
   <si>
-    <t>86%</t>
+    <t>75%</t>
+  </si>
+  <si>
+    <t>78%</t>
   </si>
   <si>
     <t>62%</t>
   </si>
   <si>
-    <t>75%</t>
-  </si>
-  <si>
-    <t>43%</t>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>38%</t>
   </si>
   <si>
     <t>50%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>60%</t>
-  </si>
-  <si>
-    <t>14%</t>
+    <t>12%</t>
+  </si>
+  <si>
+    <t>67%</t>
+  </si>
+  <si>
+    <t>80%</t>
+  </si>
+  <si>
+    <t>33%</t>
+  </si>
+  <si>
+    <t>29%</t>
   </si>
   <si>
     <t>40%</t>
   </si>
   <si>
-    <t>33%</t>
-  </si>
-  <si>
     <t>25%</t>
   </si>
   <si>
     <t>0%</t>
-  </si>
-  <si>
-    <t>67%</t>
   </si>
 </sst>
 </file>
@@ -554,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -618,13 +627,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -636,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -645,16 +654,16 @@
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="M2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N2">
-        <v>14.71</v>
+        <v>13.75</v>
       </c>
       <c r="O2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -668,13 +677,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -683,31 +692,31 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1.12</v>
+        <v>0.33</v>
       </c>
       <c r="M3">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N3">
-        <v>11.75</v>
+        <v>11.44</v>
       </c>
       <c r="O3">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="P3">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -721,10 +730,10 @@
         <v>8</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -733,28 +742,28 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.25</v>
+        <v>1.12</v>
       </c>
       <c r="M4">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N4">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="O4">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P4">
         <v>-1</v>
@@ -768,43 +777,43 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.29</v>
+        <v>3.2</v>
       </c>
       <c r="M5">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="N5">
-        <v>10</v>
+        <v>16.6</v>
       </c>
       <c r="O5">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="P5">
         <v>1</v>
@@ -818,13 +827,13 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -836,28 +845,28 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="M6">
         <v>10</v>
       </c>
       <c r="N6">
-        <v>10.83</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="O6">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="P6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -868,25 +877,25 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -895,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>3.25</v>
+        <v>1.67</v>
       </c>
       <c r="M7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N7">
-        <v>16</v>
+        <v>10.83</v>
       </c>
       <c r="O7">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P7">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -918,13 +927,13 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -936,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -945,19 +954,19 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>2.2</v>
+        <v>2.17</v>
       </c>
       <c r="M8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N8">
-        <v>11.2</v>
+        <v>10.5</v>
       </c>
       <c r="O8">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -968,13 +977,13 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -986,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -995,19 +1004,19 @@
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="M9">
         <v>6</v>
       </c>
       <c r="N9">
-        <v>13.75</v>
+        <v>7.75</v>
       </c>
       <c r="O9">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1018,13 +1027,13 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1036,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1045,19 +1054,19 @@
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0.43</v>
+        <v>0.17</v>
       </c>
       <c r="M10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N10">
-        <v>7.29</v>
+        <v>10</v>
       </c>
       <c r="O10">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1071,10 +1080,10 @@
         <v>5</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1086,28 +1095,28 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N11">
-        <v>9.800000000000001</v>
+        <v>11.2</v>
       </c>
       <c r="O11">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="P11">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1118,13 +1127,13 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1136,25 +1145,25 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="M12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N12">
-        <v>9.4</v>
+        <v>13.75</v>
       </c>
       <c r="O12">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1165,16 +1174,16 @@
         <v>27</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1186,28 +1195,28 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.4</v>
+        <v>1.17</v>
       </c>
       <c r="M13">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N13">
-        <v>9.4</v>
+        <v>8.67</v>
       </c>
       <c r="O13">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="P13">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1218,13 +1227,13 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1236,7 +1245,7 @@
         <v>1</v>
       </c>
       <c r="I14">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1245,19 +1254,19 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="M14">
         <v>1</v>
       </c>
       <c r="N14">
-        <v>7.5</v>
+        <v>7.14</v>
       </c>
       <c r="O14">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P14">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1268,13 +1277,13 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1286,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1295,19 +1304,19 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="M15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N15">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="O15">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="P15">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1324,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1371,43 +1380,43 @@
         <v>4</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N17">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="O17">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P17">
-        <v>-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1418,13 +1427,13 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1436,28 +1445,28 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="M18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N18">
-        <v>13.5</v>
+        <v>8</v>
       </c>
       <c r="O18">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="P18">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1468,13 +1477,13 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1486,28 +1495,28 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19">
         <v>1.5</v>
       </c>
       <c r="M19">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N19">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="O19">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P19">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1521,10 +1530,10 @@
         <v>2</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1536,28 +1545,28 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N20">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="O20">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P20">
-        <v>-5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1568,46 +1577,46 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.33</v>
+        <v>1.5</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N21">
-        <v>7.67</v>
+        <v>6.5</v>
       </c>
       <c r="O21">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1615,7 +1624,7 @@
         <v>36</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -1636,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1651,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="O22">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P22">
-        <v>2</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1668,13 +1677,13 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1686,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1701,10 +1710,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>6.33</v>
+        <v>11.5</v>
       </c>
       <c r="O23">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P23">
         <v>2</v>
@@ -1724,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1736,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1745,19 +1754,19 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>6</v>
+        <v>6.33</v>
       </c>
       <c r="O24">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P24">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1765,16 +1774,16 @@
         <v>39</v>
       </c>
       <c r="B25">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1786,28 +1795,28 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N25">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="O25">
         <v>18</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1818,13 +1827,13 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1836,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1845,19 +1854,19 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M26">
         <v>1</v>
       </c>
       <c r="N26">
-        <v>16</v>
+        <v>8.5</v>
       </c>
       <c r="O26">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -1886,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -1895,16 +1904,16 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N27">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O27">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -1915,7 +1924,7 @@
         <v>42</v>
       </c>
       <c r="B28">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -1924,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1965,7 +1974,7 @@
         <v>43</v>
       </c>
       <c r="B29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1986,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -1995,16 +2004,16 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N29">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O29">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -2021,10 +2030,10 @@
         <v>1</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -2036,25 +2045,25 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="O30">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -2071,10 +2080,10 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -2086,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -2095,16 +2104,16 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N31">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="O31">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -2115,7 +2124,7 @@
         <v>46</v>
       </c>
       <c r="B32">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -2124,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2139,22 +2148,22 @@
         <v>10</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O32">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -2174,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2186,27 +2195,127 @@
         <v>0</v>
       </c>
       <c r="I33">
+        <v>10</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
         <v>6</v>
       </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
+      <c r="O33">
+        <v>6</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>9</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>6</v>
+      </c>
+      <c r="O34">
+        <v>6</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>6</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
         <v>5</v>
       </c>
-      <c r="O33">
+      <c r="O35">
         <v>5</v>
       </c>
-      <c r="P33">
+      <c r="P35">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Milano/season2_Milano.xlsx
+++ b/Excel/Milano/season2_Milano.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
   <si>
     <t>Player</t>
   </si>
@@ -67,40 +67,43 @@
     <t>Sergio</t>
   </si>
   <si>
+    <t>Luca Stoppi</t>
+  </si>
+  <si>
+    <t>Mazzu</t>
+  </si>
+  <si>
     <t>Andrea Limonta</t>
   </si>
   <si>
-    <t>Luca Stoppi</t>
-  </si>
-  <si>
-    <t>Mazzu</t>
-  </si>
-  <si>
     <t>Cameron McAinsh</t>
   </si>
   <si>
+    <t>Cerro</t>
+  </si>
+  <si>
+    <t>Tito</t>
+  </si>
+  <si>
+    <t>Maurizio</t>
+  </si>
+  <si>
+    <t>Fabrizio Limonta</t>
+  </si>
+  <si>
+    <t>Jacopo</t>
+  </si>
+  <si>
+    <t>Cri Diaz Lopez</t>
+  </si>
+  <si>
     <t>Damiano Barbanera</t>
   </si>
   <si>
-    <t>Jacopo</t>
-  </si>
-  <si>
-    <t>Fabrizio Limonta</t>
-  </si>
-  <si>
     <t>Federico Paolucci</t>
   </si>
   <si>
-    <t>Cerro</t>
-  </si>
-  <si>
-    <t>Tito</t>
-  </si>
-  <si>
-    <t>Maurizio</t>
-  </si>
-  <si>
-    <t>Cri Diaz Lopez</t>
+    <t>Gianluca</t>
   </si>
   <si>
     <t>Robi (Stoppi)</t>
@@ -109,45 +112,42 @@
     <t>Mario Croce</t>
   </si>
   <si>
-    <t>Gianluca</t>
+    <t>Mirko (Cava)</t>
   </si>
   <si>
     <t>Roby (Cri)</t>
   </si>
   <si>
+    <t>Rocco</t>
+  </si>
+  <si>
     <t>Gian Scotti</t>
   </si>
   <si>
     <t>Stefano (Cava)</t>
   </si>
   <si>
-    <t>Rocco</t>
-  </si>
-  <si>
     <t>Leo (Cava)</t>
   </si>
   <si>
-    <t>Mirko (Cava)</t>
+    <t>Daniele Miccoli</t>
   </si>
   <si>
     <t>Andrea Silverstri</t>
   </si>
   <si>
-    <t>Daniele Miccoli</t>
-  </si>
-  <si>
     <t>Alessio (Cava)</t>
   </si>
   <si>
     <t>Wissam Rahal</t>
   </si>
   <si>
+    <t>Giovanni Aiello</t>
+  </si>
+  <si>
     <t>Francesco</t>
   </si>
   <si>
-    <t>Giovanni Aiello</t>
-  </si>
-  <si>
     <t>Zen</t>
   </si>
   <si>
@@ -157,46 +157,43 @@
     <t>Coyote (Cri)</t>
   </si>
   <si>
+    <t>Lipi (Mirko)</t>
+  </si>
+  <si>
+    <t>Claudio</t>
+  </si>
+  <si>
     <t>Omar</t>
   </si>
   <si>
-    <t>Claudio</t>
-  </si>
-  <si>
     <t>Fabio (Mario)</t>
   </si>
   <si>
-    <t>75%</t>
+    <t>67%</t>
+  </si>
+  <si>
+    <t>100%</t>
   </si>
   <si>
     <t>78%</t>
   </si>
   <si>
-    <t>62%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>38%</t>
   </si>
   <si>
+    <t>83%</t>
+  </si>
+  <si>
+    <t>80%</t>
+  </si>
+  <si>
+    <t>43%</t>
+  </si>
+  <si>
+    <t>11%</t>
+  </si>
+  <si>
     <t>50%</t>
-  </si>
-  <si>
-    <t>12%</t>
-  </si>
-  <si>
-    <t>67%</t>
-  </si>
-  <si>
-    <t>80%</t>
-  </si>
-  <si>
-    <t>33%</t>
-  </si>
-  <si>
-    <t>29%</t>
   </si>
   <si>
     <t>40%</t>
@@ -563,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P35"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -627,13 +624,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -645,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -654,16 +651,16 @@
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="M2">
         <v>13</v>
       </c>
       <c r="N2">
-        <v>13.75</v>
+        <v>12.78</v>
       </c>
       <c r="O2">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -680,7 +677,7 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
         <v>51</v>
@@ -692,31 +689,31 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.33</v>
+        <v>1.11</v>
       </c>
       <c r="M3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N3">
-        <v>11.44</v>
+        <v>12.22</v>
       </c>
       <c r="O3">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -727,10 +724,10 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
         <v>52</v>
@@ -739,34 +736,34 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.12</v>
+        <v>3.5</v>
       </c>
       <c r="M4">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="N4">
-        <v>11.75</v>
+        <v>17.33</v>
       </c>
       <c r="O4">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="P4">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -777,10 +774,10 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
         <v>53</v>
@@ -789,31 +786,31 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>3.2</v>
+        <v>0.33</v>
       </c>
       <c r="M5">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="N5">
-        <v>16.6</v>
+        <v>11.44</v>
       </c>
       <c r="O5">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="P5">
         <v>1</v>
@@ -880,7 +877,7 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
         <v>55</v>
@@ -895,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -904,19 +901,19 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.67</v>
+        <v>1.17</v>
       </c>
       <c r="M7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N7">
-        <v>10.83</v>
+        <v>12.17</v>
       </c>
       <c r="O7">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="P7">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -927,13 +924,13 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -945,28 +942,28 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>2.17</v>
+        <v>1.4</v>
       </c>
       <c r="M8">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="N8">
-        <v>10.5</v>
+        <v>14.4</v>
       </c>
       <c r="O8">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -977,46 +974,46 @@
         <v>8</v>
       </c>
       <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>61</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1.14</v>
+      </c>
+      <c r="M9">
         <v>8</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>76</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.75</v>
-      </c>
-      <c r="M9">
-        <v>6</v>
-      </c>
       <c r="N9">
-        <v>7.75</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="O9">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1027,46 +1024,46 @@
         <v>9</v>
       </c>
       <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>87</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.67</v>
+      </c>
+      <c r="M10">
         <v>6</v>
       </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="E10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>50</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.17</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
       <c r="N10">
-        <v>10</v>
+        <v>7.44</v>
       </c>
       <c r="O10">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1074,16 +1071,16 @@
         <v>25</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1092,10 +1089,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1104,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="M11">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="N11">
-        <v>11.2</v>
+        <v>9.57</v>
       </c>
       <c r="O11">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="P11">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1127,13 +1124,13 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1142,31 +1139,31 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>1.5</v>
+        <v>0.12</v>
       </c>
       <c r="M12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>13.75</v>
+        <v>8.25</v>
       </c>
       <c r="O12">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1180,7 +1177,7 @@
         <v>6</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
         <v>59</v>
@@ -1195,28 +1192,28 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>1.17</v>
+        <v>1.67</v>
       </c>
       <c r="M13">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N13">
-        <v>8.67</v>
+        <v>10.83</v>
       </c>
       <c r="O13">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1227,43 +1224,43 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>50</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.17</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>10</v>
+      </c>
+      <c r="O14">
         <v>60</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>61</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0.14</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="N14">
-        <v>7.14</v>
-      </c>
-      <c r="O14">
-        <v>50</v>
       </c>
       <c r="P14">
         <v>1</v>
@@ -1280,25 +1277,25 @@
         <v>5</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1310,13 +1307,13 @@
         <v>2</v>
       </c>
       <c r="N15">
-        <v>9.4</v>
+        <v>10.4</v>
       </c>
       <c r="O15">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="P15">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1327,25 +1324,25 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1354,19 +1351,19 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>2.25</v>
+        <v>0.4</v>
       </c>
       <c r="M16">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N16">
-        <v>9.25</v>
+        <v>9.4</v>
       </c>
       <c r="O16">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="P16">
-        <v>-6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1380,43 +1377,43 @@
         <v>4</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.25</v>
+        <v>2.25</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N17">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="O17">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1427,25 +1424,25 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1454,19 +1451,19 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>8</v>
+        <v>10.67</v>
       </c>
       <c r="O18">
         <v>32</v>
       </c>
       <c r="P18">
-        <v>-3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1474,16 +1471,16 @@
         <v>33</v>
       </c>
       <c r="B19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1495,28 +1492,28 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="M19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N19">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="O19">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P19">
-        <v>3</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1527,13 +1524,13 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1545,25 +1542,25 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="M20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N20">
-        <v>13.5</v>
+        <v>6.2</v>
       </c>
       <c r="O20">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="P20">
         <v>-1</v>
@@ -1577,13 +1574,13 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1595,28 +1592,28 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21">
         <v>1.5</v>
       </c>
       <c r="M21">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N21">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="O21">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P21">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1630,10 +1627,10 @@
         <v>2</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1645,28 +1642,28 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N22">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="O22">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P22">
-        <v>-5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1683,7 +1680,7 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1695,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1710,13 +1707,13 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="O23">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P23">
-        <v>2</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1724,16 +1721,16 @@
         <v>38</v>
       </c>
       <c r="B24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1745,28 +1742,28 @@
         <v>0</v>
       </c>
       <c r="I24">
+        <v>43</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>4</v>
+      </c>
+      <c r="N24">
+        <v>6</v>
+      </c>
+      <c r="O24">
         <v>24</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>6.33</v>
-      </c>
-      <c r="O24">
-        <v>19</v>
-      </c>
       <c r="P24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1783,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1795,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1804,19 +1801,19 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>6</v>
+        <v>6.33</v>
       </c>
       <c r="O25">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P25">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1833,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1883,7 +1880,7 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1927,13 +1924,13 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1945,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1954,19 +1951,19 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N28">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="O28">
         <v>14</v>
       </c>
       <c r="P28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -1977,13 +1974,13 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1995,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -2004,19 +2001,19 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="O29">
         <v>14</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2033,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -2083,7 +2080,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -2133,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2183,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2195,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -2233,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -2274,7 +2271,7 @@
         <v>49</v>
       </c>
       <c r="B35">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -2283,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -2295,27 +2292,77 @@
         <v>0</v>
       </c>
       <c r="I35">
+        <v>10</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
         <v>6</v>
       </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
+      <c r="O35">
+        <v>6</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>6</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
         <v>5</v>
       </c>
-      <c r="O35">
+      <c r="O36">
         <v>5</v>
       </c>
-      <c r="P35">
+      <c r="P36">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Milano/season2_Milano.xlsx
+++ b/Excel/Milano/season2_Milano.xlsx
@@ -82,12 +82,12 @@
     <t>Cerro</t>
   </si>
   <si>
+    <t>Maurizio</t>
+  </si>
+  <si>
     <t>Tito</t>
   </si>
   <si>
-    <t>Maurizio</t>
-  </si>
-  <si>
     <t>Fabrizio Limonta</t>
   </si>
   <si>
@@ -184,10 +184,10 @@
     <t>83%</t>
   </si>
   <si>
+    <t>43%</t>
+  </si>
+  <si>
     <t>80%</t>
-  </si>
-  <si>
-    <t>43%</t>
   </si>
   <si>
     <t>11%</t>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
         <v>1.17</v>
@@ -907,10 +907,10 @@
         <v>7</v>
       </c>
       <c r="N7">
-        <v>12.17</v>
+        <v>12.67</v>
       </c>
       <c r="O7">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P7">
         <v>4</v>
@@ -924,10 +924,10 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
         <v>56</v>
@@ -942,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -951,19 +951,19 @@
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1.4</v>
+        <v>1.14</v>
       </c>
       <c r="M8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N8">
-        <v>14.4</v>
+        <v>10.29</v>
       </c>
       <c r="O8">
         <v>72</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -971,13 +971,13 @@
         <v>23</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s">
         <v>57</v>
@@ -992,28 +992,28 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1.14</v>
+        <v>1.4</v>
       </c>
       <c r="M9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N9">
-        <v>9.859999999999999</v>
+        <v>14.4</v>
       </c>
       <c r="O9">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P9">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1080,7 +1080,7 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F15">
         <v>2</v>
